--- a/2016.xlsx
+++ b/2016.xlsx
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,6 +503,11 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
